--- a/municipal/ENG/Education/General Educational Institution/Samegrelo-Zemo Svaneti/Chkhorotsku.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Samegrelo-Zemo Svaneti/Chkhorotsku.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social_Stat\სოციალური სტატ\ზოგადსაგანმანათლებლო დაწესებულებები\სამეგრელო-ზემო სვანეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\General Educational Institution\Samegrelo-Zemo Svaneti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,9 +65,6 @@
     <t>─</t>
   </si>
   <si>
-    <t>Public and Private General Education Schools in Chkhorotsku</t>
-  </si>
-  <si>
     <t>(At the beginning of the school year)</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   <si>
     <t xml:space="preserve">Source: Ministry of Education and Science of Georgia.
 </t>
+  </si>
+  <si>
+    <t>Public and Private General Education Schools in Chkhorotsku municipality</t>
   </si>
 </sst>
 </file>
@@ -292,17 +292,17 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,7 +587,7 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,21 +602,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="A1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
@@ -628,21 +628,21 @@
       <c r="AA1" s="13"/>
     </row>
     <row r="2" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="A2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
@@ -713,7 +713,7 @@
     </row>
     <row r="4" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="10">
         <v>21</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="5" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="11">
         <v>3080</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="6" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>12</v>
@@ -877,11 +877,11 @@
       <c r="AA6" s="13"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="25"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -894,13 +894,13 @@
       <c r="AA7" s="13"/>
     </row>
     <row r="8" spans="1:27" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="26"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>

--- a/municipal/ENG/Education/General Educational Institution/Samegrelo-Zemo Svaneti/Chkhorotsku.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Samegrelo-Zemo Svaneti/Chkhorotsku.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\General Educational Institution\Samegrelo-Zemo Svaneti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\General Educational Institution\Samegrelo-Zemo Svaneti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0B9B6B-D068-4C4D-B983-5BA71BD3714A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1091B6E-5918-408B-BF99-5308DAD059F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19305" yWindow="660" windowWidth="9255" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chkhorotsku" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>Public and Private General Education Schools in Chkhorotsku municipality</t>
   </si>
@@ -110,7 +110,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Source:</t>
     </r>
@@ -119,11 +119,17 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Ministry of Education and Science of Georgia.
 </t>
     </r>
+  </si>
+  <si>
+    <t>Number of graduates of the primary level (persons)</t>
+  </si>
+  <si>
+    <t>Number of graduates of the basic level (persons)</t>
   </si>
 </sst>
 </file>
@@ -131,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,68 +152,62 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="204"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -215,7 +215,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -273,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,71 +292,61 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,27 +654,27 @@
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="7"/>
@@ -715,503 +705,787 @@
       <c r="J3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="21" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>21</v>
       </c>
-      <c r="C4" s="11">
-        <v>19</v>
-      </c>
-      <c r="D4" s="11">
-        <v>19</v>
-      </c>
-      <c r="E4" s="11">
-        <v>19</v>
-      </c>
-      <c r="F4" s="11">
-        <v>19</v>
-      </c>
-      <c r="G4" s="11">
-        <v>19</v>
-      </c>
-      <c r="H4" s="11">
-        <v>19</v>
-      </c>
-      <c r="I4" s="11">
-        <v>19</v>
-      </c>
-      <c r="J4" s="11">
-        <v>19</v>
-      </c>
-      <c r="K4" s="11">
-        <v>19</v>
-      </c>
-      <c r="L4" s="11">
-        <v>19</v>
-      </c>
-      <c r="M4" s="11">
-        <v>19</v>
-      </c>
-      <c r="N4" s="11">
-        <v>19</v>
-      </c>
-      <c r="O4" s="11">
-        <v>19</v>
-      </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
+      <c r="C4" s="10">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10">
+        <v>19</v>
+      </c>
+      <c r="E4" s="10">
+        <v>19</v>
+      </c>
+      <c r="F4" s="10">
+        <v>19</v>
+      </c>
+      <c r="G4" s="10">
+        <v>19</v>
+      </c>
+      <c r="H4" s="10">
+        <v>19</v>
+      </c>
+      <c r="I4" s="10">
+        <v>19</v>
+      </c>
+      <c r="J4" s="10">
+        <v>19</v>
+      </c>
+      <c r="K4" s="10">
+        <v>19</v>
+      </c>
+      <c r="L4" s="10">
+        <v>19</v>
+      </c>
+      <c r="M4" s="10">
+        <v>19</v>
+      </c>
+      <c r="N4" s="10">
+        <v>19</v>
+      </c>
+      <c r="O4" s="10">
+        <v>19</v>
+      </c>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
     </row>
     <row r="5" spans="1:19" ht="21" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>3080</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>2793</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>2683</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>2658</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>2631</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="11">
         <v>2609</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <v>2609</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <v>2609</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11">
         <v>2647</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="11">
         <v>2595</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="11">
         <v>2625</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="11">
         <v>2621</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="11">
         <v>2583</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="11">
         <v>2567</v>
       </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-    </row>
-    <row r="6" spans="1:19" ht="30">
-      <c r="A6" s="14" t="s">
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+    </row>
+    <row r="6" spans="1:19" ht="26.25">
+      <c r="A6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="11">
+        <v>211</v>
+      </c>
+      <c r="D6" s="11">
+        <v>265</v>
+      </c>
+      <c r="E6" s="11">
+        <v>199</v>
+      </c>
+      <c r="F6" s="11">
+        <v>223</v>
+      </c>
+      <c r="G6" s="11">
+        <v>235</v>
+      </c>
+      <c r="H6" s="11">
+        <v>203</v>
+      </c>
+      <c r="I6" s="11">
+        <v>178</v>
+      </c>
+      <c r="J6" s="11">
+        <v>211</v>
+      </c>
+      <c r="K6" s="11">
+        <v>185</v>
+      </c>
+      <c r="L6" s="11">
+        <v>209</v>
+      </c>
+      <c r="M6" s="11">
+        <v>264</v>
+      </c>
+      <c r="N6" s="11">
+        <f>N7+N8</f>
+        <v>240</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="11">
+        <v>102</v>
+      </c>
+      <c r="D7" s="11">
+        <v>116</v>
+      </c>
+      <c r="E7" s="11">
+        <v>102</v>
+      </c>
+      <c r="F7" s="11">
+        <v>109</v>
+      </c>
+      <c r="G7" s="11">
+        <v>111</v>
+      </c>
+      <c r="H7" s="11">
+        <v>96</v>
+      </c>
+      <c r="I7" s="11">
+        <v>79</v>
+      </c>
+      <c r="J7" s="11">
+        <v>91</v>
+      </c>
+      <c r="K7" s="11">
+        <v>91</v>
+      </c>
+      <c r="L7" s="11">
+        <v>99</v>
+      </c>
+      <c r="M7" s="11">
+        <v>130</v>
+      </c>
+      <c r="N7" s="11">
+        <v>110</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="11">
+        <v>109</v>
+      </c>
+      <c r="D8" s="11">
+        <v>149</v>
+      </c>
+      <c r="E8" s="11">
+        <v>97</v>
+      </c>
+      <c r="F8" s="11">
+        <v>114</v>
+      </c>
+      <c r="G8" s="11">
+        <v>124</v>
+      </c>
+      <c r="H8" s="11">
+        <v>107</v>
+      </c>
+      <c r="I8" s="11">
+        <v>99</v>
+      </c>
+      <c r="J8" s="11">
+        <v>120</v>
+      </c>
+      <c r="K8" s="11">
+        <v>94</v>
+      </c>
+      <c r="L8" s="11">
+        <v>110</v>
+      </c>
+      <c r="M8" s="11">
+        <v>134</v>
+      </c>
+      <c r="N8" s="11">
+        <v>130</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="26.25">
+      <c r="A9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="11">
+        <v>279</v>
+      </c>
+      <c r="D9" s="11">
+        <v>293</v>
+      </c>
+      <c r="E9" s="11">
+        <v>251</v>
+      </c>
+      <c r="F9" s="11">
+        <v>214</v>
+      </c>
+      <c r="G9" s="11">
+        <v>259</v>
+      </c>
+      <c r="H9" s="11">
+        <v>210</v>
+      </c>
+      <c r="I9" s="11">
+        <v>219</v>
+      </c>
+      <c r="J9" s="11">
+        <v>240</v>
+      </c>
+      <c r="K9" s="11">
+        <v>202</v>
+      </c>
+      <c r="L9" s="11">
+        <v>176</v>
+      </c>
+      <c r="M9" s="11">
+        <v>202</v>
+      </c>
+      <c r="N9" s="11">
+        <f>N10+N11</f>
+        <v>179</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="11">
+        <v>124</v>
+      </c>
+      <c r="D10" s="11">
+        <v>155</v>
+      </c>
+      <c r="E10" s="11">
+        <v>108</v>
+      </c>
+      <c r="F10" s="11">
+        <v>106</v>
+      </c>
+      <c r="G10" s="11">
+        <v>120</v>
+      </c>
+      <c r="H10" s="11">
+        <v>108</v>
+      </c>
+      <c r="I10" s="11">
+        <v>107</v>
+      </c>
+      <c r="J10" s="11">
+        <v>115</v>
+      </c>
+      <c r="K10" s="11">
+        <v>97</v>
+      </c>
+      <c r="L10" s="11">
+        <v>76</v>
+      </c>
+      <c r="M10" s="11">
+        <v>89</v>
+      </c>
+      <c r="N10" s="11">
+        <v>88</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="11">
+        <v>155</v>
+      </c>
+      <c r="D11" s="11">
+        <v>138</v>
+      </c>
+      <c r="E11" s="11">
+        <v>143</v>
+      </c>
+      <c r="F11" s="11">
+        <v>108</v>
+      </c>
+      <c r="G11" s="11">
+        <v>139</v>
+      </c>
+      <c r="H11" s="11">
+        <v>102</v>
+      </c>
+      <c r="I11" s="11">
+        <v>112</v>
+      </c>
+      <c r="J11" s="11">
+        <v>125</v>
+      </c>
+      <c r="K11" s="11">
+        <v>105</v>
+      </c>
+      <c r="L11" s="11">
+        <v>100</v>
+      </c>
+      <c r="M11" s="11">
+        <v>113</v>
+      </c>
+      <c r="N11" s="11">
+        <v>91</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="26.25">
+      <c r="A12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="11">
+        <v>184</v>
+      </c>
+      <c r="D12" s="11">
+        <v>217</v>
+      </c>
+      <c r="E12" s="11">
         <v>183</v>
       </c>
-      <c r="D6" s="16">
-        <v>202</v>
-      </c>
-      <c r="E6" s="16">
-        <v>188</v>
-      </c>
-      <c r="F6" s="16">
-        <v>201</v>
-      </c>
-      <c r="G6" s="16">
-        <v>226</v>
-      </c>
-      <c r="H6" s="16">
-        <v>189</v>
-      </c>
-      <c r="I6" s="16">
+      <c r="F12" s="11">
+        <v>194</v>
+      </c>
+      <c r="G12" s="11">
+        <v>230</v>
+      </c>
+      <c r="H12" s="11">
+        <v>191</v>
+      </c>
+      <c r="I12" s="11">
         <v>174</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J12" s="11">
         <v>215</v>
       </c>
-      <c r="K6" s="16">
-        <v>188</v>
-      </c>
-      <c r="L6" s="16">
+      <c r="K12" s="11">
+        <v>187</v>
+      </c>
+      <c r="L12" s="11">
         <v>196</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M12" s="11">
         <v>225</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N12" s="11">
         <v>190</v>
       </c>
-      <c r="O6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-    </row>
-    <row r="7" spans="1:19" ht="21" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="O12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+    </row>
+    <row r="13" spans="1:19" ht="21" customHeight="1">
+      <c r="A13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="11">
+        <v>96</v>
+      </c>
+      <c r="D13" s="11">
+        <v>108</v>
+      </c>
+      <c r="E13" s="11">
+        <v>85</v>
+      </c>
+      <c r="F13" s="11">
+        <v>87</v>
+      </c>
+      <c r="G13" s="11">
+        <v>126</v>
+      </c>
+      <c r="H13" s="11">
+        <v>85</v>
+      </c>
+      <c r="I13" s="11">
+        <v>89</v>
+      </c>
+      <c r="J13" s="11">
+        <v>99</v>
+      </c>
+      <c r="K13" s="11">
         <v>95</v>
       </c>
-      <c r="D7" s="13">
+      <c r="L13" s="11">
+        <v>97</v>
+      </c>
+      <c r="M13" s="11">
+        <v>109</v>
+      </c>
+      <c r="N13" s="11">
+        <v>91</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+    </row>
+    <row r="14" spans="1:19" ht="21" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="11">
+        <v>88</v>
+      </c>
+      <c r="D14" s="11">
+        <v>109</v>
+      </c>
+      <c r="E14" s="11">
+        <v>98</v>
+      </c>
+      <c r="F14" s="11">
+        <v>107</v>
+      </c>
+      <c r="G14" s="11">
         <v>104</v>
       </c>
-      <c r="E7" s="13">
+      <c r="H14" s="11">
+        <v>106</v>
+      </c>
+      <c r="I14" s="11">
+        <v>85</v>
+      </c>
+      <c r="J14" s="11">
+        <v>116</v>
+      </c>
+      <c r="K14" s="11">
+        <v>92</v>
+      </c>
+      <c r="L14" s="11">
+        <v>99</v>
+      </c>
+      <c r="M14" s="11">
+        <v>116</v>
+      </c>
+      <c r="N14" s="11">
+        <v>99</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+    </row>
+    <row r="15" spans="1:19" ht="26.25">
+      <c r="A15" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="28">
+        <v>7.9327441258892</v>
+      </c>
+      <c r="D15" s="28">
+        <v>9.5135798680374393</v>
+      </c>
+      <c r="E15" s="28">
+        <v>8.1097250227116611</v>
+      </c>
+      <c r="F15" s="28">
+        <v>8.6545324768022827</v>
+      </c>
+      <c r="G15" s="28">
+        <v>10.319917440660474</v>
+      </c>
+      <c r="H15" s="28">
+        <v>8.6201060588965355</v>
+      </c>
+      <c r="I15" s="28">
+        <v>7.9051383399209474</v>
+      </c>
+      <c r="J15" s="28">
+        <v>9.8531197726908175</v>
+      </c>
+      <c r="K15" s="28">
+        <v>8.6574074074074048</v>
+      </c>
+      <c r="L15" s="28">
+        <v>9.1479778768290103</v>
+      </c>
+      <c r="M15" s="28">
+        <v>10.61395853480199</v>
+      </c>
+      <c r="N15" s="28">
+        <v>9.0450347519756242</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+    </row>
+    <row r="16" spans="1:19" ht="21" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="11">
+        <v>575</v>
+      </c>
+      <c r="I16" s="11">
+        <v>575</v>
+      </c>
+      <c r="J16" s="11">
+        <v>562</v>
+      </c>
+      <c r="K16" s="11">
+        <v>535</v>
+      </c>
+      <c r="L16" s="11">
+        <v>530</v>
+      </c>
+      <c r="M16" s="11">
+        <v>517</v>
+      </c>
+      <c r="N16" s="11">
+        <v>521</v>
+      </c>
+      <c r="O16" s="12">
+        <v>526</v>
+      </c>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+    </row>
+    <row r="17" spans="1:18" ht="21" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="11">
+        <v>466</v>
+      </c>
+      <c r="I17" s="11">
+        <v>470</v>
+      </c>
+      <c r="J17" s="11">
+        <v>461</v>
+      </c>
+      <c r="K17" s="11">
+        <v>438</v>
+      </c>
+      <c r="L17" s="11">
+        <v>440</v>
+      </c>
+      <c r="M17" s="11">
+        <v>437</v>
+      </c>
+      <c r="N17" s="11">
+        <v>434</v>
+      </c>
+      <c r="O17" s="12">
+        <v>440</v>
+      </c>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+    </row>
+    <row r="18" spans="1:18" ht="21" customHeight="1">
+      <c r="A18" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="14">
+        <v>109</v>
+      </c>
+      <c r="I18" s="14">
+        <v>105</v>
+      </c>
+      <c r="J18" s="14">
+        <v>101</v>
+      </c>
+      <c r="K18" s="14">
+        <v>97</v>
+      </c>
+      <c r="L18" s="14">
+        <v>90</v>
+      </c>
+      <c r="M18" s="14">
+        <v>80</v>
+      </c>
+      <c r="N18" s="14">
         <v>87</v>
       </c>
-      <c r="F7" s="13">
-        <v>92</v>
-      </c>
-      <c r="G7" s="13">
-        <v>125</v>
-      </c>
-      <c r="H7" s="13">
-        <v>133</v>
-      </c>
-      <c r="I7" s="13">
-        <v>89</v>
-      </c>
-      <c r="J7" s="13">
-        <v>99</v>
-      </c>
-      <c r="K7" s="13">
-        <v>96</v>
-      </c>
-      <c r="L7" s="13">
-        <v>97</v>
-      </c>
-      <c r="M7" s="13">
-        <v>109</v>
-      </c>
-      <c r="N7" s="13">
-        <v>91</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-    </row>
-    <row r="8" spans="1:19" ht="21" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="13">
-        <v>88</v>
-      </c>
-      <c r="D8" s="13">
-        <v>98</v>
-      </c>
-      <c r="E8" s="13">
-        <v>101</v>
-      </c>
-      <c r="F8" s="13">
-        <v>109</v>
-      </c>
-      <c r="G8" s="13">
-        <v>101</v>
-      </c>
-      <c r="H8" s="13">
-        <v>125</v>
-      </c>
-      <c r="I8" s="13">
-        <v>85</v>
-      </c>
-      <c r="J8" s="13">
-        <v>116</v>
-      </c>
-      <c r="K8" s="13">
-        <v>92</v>
-      </c>
-      <c r="L8" s="13">
-        <v>99</v>
-      </c>
-      <c r="M8" s="13">
-        <v>116</v>
-      </c>
-      <c r="N8" s="13">
-        <v>99</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-    </row>
-    <row r="9" spans="1:19" ht="26.25">
-      <c r="A9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="32">
-        <v>7.7521021752483401</v>
-      </c>
-      <c r="D9" s="32">
-        <v>8.7087734425522694</v>
-      </c>
-      <c r="E9" s="32">
-        <v>8.2421797935070895</v>
-      </c>
-      <c r="F9" s="32">
-        <v>8.9074028937980607</v>
-      </c>
-      <c r="G9" s="32">
-        <v>10.082084225553199</v>
-      </c>
-      <c r="H9" s="32">
-        <v>8.4802799838470904</v>
-      </c>
-      <c r="I9" s="32">
-        <v>7.8528714882094102</v>
-      </c>
-      <c r="J9" s="32">
-        <v>9.7678433510517504</v>
-      </c>
-      <c r="K9" s="32">
-        <v>8.6157512430970904</v>
-      </c>
-      <c r="L9" s="32">
-        <v>9.0740740740740709</v>
-      </c>
-      <c r="M9" s="32">
-        <v>10.501505215747599</v>
-      </c>
-      <c r="N9" s="32">
-        <v>9.0450347519756207</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-    </row>
-    <row r="10" spans="1:19" ht="21" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="13">
-        <v>575</v>
-      </c>
-      <c r="I10" s="13">
-        <v>575</v>
-      </c>
-      <c r="J10" s="13">
-        <v>562</v>
-      </c>
-      <c r="K10" s="13">
-        <v>535</v>
-      </c>
-      <c r="L10" s="13">
-        <v>530</v>
-      </c>
-      <c r="M10" s="13">
-        <v>517</v>
-      </c>
-      <c r="N10" s="13">
-        <v>521</v>
-      </c>
-      <c r="O10" s="17">
-        <v>526</v>
-      </c>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-    </row>
-    <row r="11" spans="1:19" ht="21" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="13">
-        <v>466</v>
-      </c>
-      <c r="I11" s="13">
-        <v>470</v>
-      </c>
-      <c r="J11" s="13">
-        <v>461</v>
-      </c>
-      <c r="K11" s="13">
-        <v>438</v>
-      </c>
-      <c r="L11" s="13">
-        <v>440</v>
-      </c>
-      <c r="M11" s="13">
-        <v>437</v>
-      </c>
-      <c r="N11" s="13">
-        <v>434</v>
-      </c>
-      <c r="O11" s="17">
-        <v>440</v>
-      </c>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-    </row>
-    <row r="12" spans="1:19" ht="21" customHeight="1">
-      <c r="A12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="21">
-        <v>109</v>
-      </c>
-      <c r="I12" s="21">
-        <v>105</v>
-      </c>
-      <c r="J12" s="21">
-        <v>101</v>
-      </c>
-      <c r="K12" s="21">
-        <v>97</v>
-      </c>
-      <c r="L12" s="21">
-        <v>90</v>
-      </c>
-      <c r="M12" s="21">
-        <v>80</v>
-      </c>
-      <c r="N12" s="21">
-        <v>87</v>
-      </c>
-      <c r="O12" s="20">
+      <c r="O18" s="13">
         <v>86</v>
       </c>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="30" t="s">
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="31" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/municipal/ENG/Education/General Educational Institution/Samegrelo-Zemo Svaneti/Chkhorotsku.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Samegrelo-Zemo Svaneti/Chkhorotsku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\General Educational Institution\Samegrelo-Zemo Svaneti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1091B6E-5918-408B-BF99-5308DAD059F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0057712-BEA8-4165-8840-F7A652CC0DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
   <si>
     <t>Public and Private General Education Schools in Chkhorotsku municipality</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Number of secondary school graduates  (persons)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t xml:space="preserve">    Of which:   Girl</t>
@@ -131,6 +128,26 @@
   <si>
     <t>Number of graduates of the basic level (persons)</t>
   </si>
+  <si>
+    <r>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> „ ... „ - Data is confidential or unavailable.</t>
+    </r>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +157,7 @@
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +234,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -273,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,6 +368,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -346,7 +378,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,8 +664,8 @@
     <col min="1" max="1" width="30.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
     <col min="3" max="14" width="10.7109375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="5" customWidth="1"/>
-    <col min="16" max="19" width="12" style="5" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" style="5" customWidth="1"/>
+    <col min="17" max="19" width="12" style="5" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -654,21 +687,21 @@
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
@@ -720,6 +753,9 @@
       <c r="O3" s="19" t="s">
         <v>15</v>
       </c>
+      <c r="P3" s="19" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="21" customHeight="1">
       <c r="A4" s="21" t="s">
@@ -767,7 +803,9 @@
       <c r="O4" s="10">
         <v>19</v>
       </c>
-      <c r="P4" s="20"/>
+      <c r="P4" s="10">
+        <v>19</v>
+      </c>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
     </row>
@@ -817,16 +855,18 @@
       <c r="O5" s="11">
         <v>2567</v>
       </c>
-      <c r="P5" s="20"/>
+      <c r="P5" s="11">
+        <v>2558</v>
+      </c>
       <c r="Q5" s="20"/>
       <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:19" ht="26.25">
       <c r="A6" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C6" s="11">
         <v>211</v>
@@ -865,16 +905,19 @@
         <f>N7+N8</f>
         <v>240</v>
       </c>
-      <c r="O6" s="12" t="s">
-        <v>19</v>
+      <c r="O6" s="11">
+        <v>238</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C7" s="11">
         <v>102</v>
@@ -912,16 +955,19 @@
       <c r="N7" s="11">
         <v>110</v>
       </c>
-      <c r="O7" s="12" t="s">
-        <v>19</v>
+      <c r="O7" s="11">
+        <v>107</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C8" s="11">
         <v>109</v>
@@ -959,16 +1005,19 @@
       <c r="N8" s="11">
         <v>130</v>
       </c>
-      <c r="O8" s="12" t="s">
-        <v>19</v>
+      <c r="O8" s="11">
+        <v>131</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="26.25">
       <c r="A9" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C9" s="11">
         <v>279</v>
@@ -1007,16 +1056,19 @@
         <f>N10+N11</f>
         <v>179</v>
       </c>
-      <c r="O9" s="12" t="s">
-        <v>19</v>
+      <c r="O9" s="11">
+        <v>209</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C10" s="11">
         <v>124</v>
@@ -1054,16 +1106,19 @@
       <c r="N10" s="11">
         <v>88</v>
       </c>
-      <c r="O10" s="12" t="s">
-        <v>19</v>
+      <c r="O10" s="11">
+        <v>98</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C11" s="11">
         <v>155</v>
@@ -1101,8 +1156,11 @@
       <c r="N11" s="11">
         <v>91</v>
       </c>
-      <c r="O11" s="12" t="s">
-        <v>19</v>
+      <c r="O11" s="11">
+        <v>111</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="26.25">
@@ -1110,7 +1168,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C12" s="11">
         <v>184</v>
@@ -1148,19 +1206,21 @@
       <c r="N12" s="11">
         <v>190</v>
       </c>
-      <c r="O12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="20"/>
+      <c r="O12" s="11">
+        <v>175</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
     </row>
     <row r="13" spans="1:19" ht="21" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11">
         <v>96</v>
@@ -1198,19 +1258,21 @@
       <c r="N13" s="11">
         <v>91</v>
       </c>
-      <c r="O13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" s="20"/>
+      <c r="O13" s="11">
+        <v>78</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
     </row>
     <row r="14" spans="1:19" ht="21" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C14" s="11">
         <v>88</v>
@@ -1248,84 +1310,88 @@
       <c r="N14" s="11">
         <v>99</v>
       </c>
-      <c r="O14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="20"/>
+      <c r="O14" s="11">
+        <v>97</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:19" ht="26.25">
       <c r="A15" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="28">
+        <v>31</v>
+      </c>
+      <c r="C15" s="25">
         <v>7.9327441258892</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="25">
         <v>9.5135798680374393</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="25">
         <v>8.1097250227116611</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="25">
         <v>8.6545324768022827</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="25">
         <v>10.319917440660474</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="25">
         <v>8.6201060588965355</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="25">
         <v>7.9051383399209474</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="25">
         <v>9.8531197726908175</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="25">
         <v>8.6574074074074048</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="25">
         <v>9.1479778768290103</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="25">
         <v>10.61395853480199</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="25">
         <v>9.0450347519756242</v>
       </c>
-      <c r="O15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="20"/>
+      <c r="O15" s="30">
+        <v>9.1605997782170565</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
     </row>
     <row r="16" spans="1:19" ht="21" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H16" s="11">
         <v>575</v>
@@ -1351,31 +1417,33 @@
       <c r="O16" s="12">
         <v>526</v>
       </c>
-      <c r="P16" s="20"/>
+      <c r="P16" s="12">
+        <v>526</v>
+      </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
     </row>
     <row r="17" spans="1:18" ht="21" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H17" s="11">
         <v>466</v>
@@ -1401,31 +1469,33 @@
       <c r="O17" s="12">
         <v>440</v>
       </c>
-      <c r="P17" s="20"/>
+      <c r="P17" s="12">
+        <v>441</v>
+      </c>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:18" ht="21" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H18" s="14">
         <v>109</v>
@@ -1451,26 +1521,28 @@
       <c r="O18" s="13">
         <v>86</v>
       </c>
-      <c r="P18" s="20"/>
+      <c r="P18" s="13">
+        <v>85</v>
+      </c>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -1481,6 +1553,11 @@
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
     </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:M2"/>
